--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/ValueSet/DocumentFormatVS</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/DocumentFormatVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-DocumentFormatVS.xlsx
+++ b/ValueSet-DocumentFormatVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
